--- a/biology/Botanique/Nematochrysopsidaceae/Nematochrysopsidaceae.xlsx
+++ b/biology/Botanique/Nematochrysopsidaceae/Nematochrysopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nematochrysopsidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Pelagophyceae et de l’ordre des Sarcinochrysidales.
-Le Nematochrysopsis a été découvert en Océan Atlantique (Roscoff, France), mais est plus abondant dans en Méditerranée et Adriatique à une profondeur comprise entre 5 et 40 m où elle joue un rôle fondamental dans la formation d'agrégats mucilagineux benthiques saisonniers[1].
+Le Nematochrysopsis a été découvert en Océan Atlantique (Roscoff, France), mais est plus abondant dans en Méditerranée et Adriatique à une profondeur comprise entre 5 et 40 m où elle joue un rôle fondamental dans la formation d'agrégats mucilagineux benthiques saisonniers.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Nematochrysopsis, construit à partir du préfixe Nematochrys, référence au Nematochrysis (genre type de la famille des Nematochrysidaceae), et du suffixe latin "-opsis", « semblable à », en référence l'apparence de la plante proche de l'algue du genre Nematochrysis[note 1].
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Nematochrysopsis se présente sous la forme de filaments unisériés, non ramifiés, attachés par une base mucilagineuse de longueur variable produite par la cellule basale allongée. Les filaments font 8 à 10 μm de diamètre et peuvent mesurer jusqu'à plusieurs centaines de micromètres de long[1]. Une forme à filaments plus gros, atteignant 22 μm de diamètre, a été observée en mer de mer de Marmara[3].
-Les filaments de Nematochrysopsis marina peuvent notamment se développer sur les feuilles de la plante sous-marine méditerranéenne Posidonia oceanica[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Nematochrysopsis se présente sous la forme de filaments unisériés, non ramifiés, attachés par une base mucilagineuse de longueur variable produite par la cellule basale allongée. Les filaments font 8 à 10 μm de diamètre et peuvent mesurer jusqu'à plusieurs centaines de micromètres de long. Une forme à filaments plus gros, atteignant 22 μm de diamètre, a été observée en mer de mer de Marmara.
+Les filaments de Nematochrysopsis marina peuvent notamment se développer sur les feuilles de la plante sous-marine méditerranéenne Posidonia oceanica.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (24 février 2022)[1]  :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (24 février 2022)  :
 Nematochrysopsis Chadefaud, 1947
 Nematochrysopsis roscoffensis Chadefaud, 1947
 Nematochrysopsis marina (J.Feldmann) C.Billard, 2000 synonyme
